--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll3-Notch4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll3-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,15 +79,6 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch4</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -97,7 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
+  </si>
+  <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H2">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I2">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J2">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N2">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O2">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P2">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q2">
-        <v>61.69170074835701</v>
+        <v>62.71462214438201</v>
       </c>
       <c r="R2">
-        <v>61.69170074835701</v>
+        <v>250.858488577528</v>
       </c>
       <c r="S2">
-        <v>0.346309958220656</v>
+        <v>0.1907886003214045</v>
       </c>
       <c r="T2">
-        <v>0.346309958220656</v>
+        <v>0.1222059279497961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H3">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I3">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J3">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N3">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P3">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q3">
-        <v>1.832066699951713</v>
+        <v>1.956878007611667</v>
       </c>
       <c r="R3">
-        <v>1.832066699951713</v>
+        <v>11.74126804567</v>
       </c>
       <c r="S3">
-        <v>0.01028441321314407</v>
+        <v>0.005953157386684717</v>
       </c>
       <c r="T3">
-        <v>0.01028441321314407</v>
+        <v>0.005719768802581099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H4">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I4">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J4">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N4">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O4">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P4">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q4">
-        <v>0.587311740855735</v>
+        <v>1.124185359653</v>
       </c>
       <c r="R4">
-        <v>0.587311740855735</v>
+        <v>6.745112157918001</v>
       </c>
       <c r="S4">
-        <v>0.003296908692271175</v>
+        <v>0.003419964020132807</v>
       </c>
       <c r="T4">
-        <v>0.003296908692271175</v>
+        <v>0.003285887175107781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H5">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I5">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J5">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N5">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O5">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P5">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q5">
-        <v>1.373751796055898</v>
+        <v>1.532555314802667</v>
       </c>
       <c r="R5">
-        <v>1.373751796055898</v>
+        <v>9.195331888816</v>
       </c>
       <c r="S5">
-        <v>0.007711635784499576</v>
+        <v>0.004662295226034827</v>
       </c>
       <c r="T5">
-        <v>0.007711635784499576</v>
+        <v>0.004479513819329351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H6">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I6">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J6">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N6">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O6">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P6">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q6">
-        <v>37.06815524280945</v>
+        <v>39.057299975291</v>
       </c>
       <c r="R6">
-        <v>37.06815524280945</v>
+        <v>234.343799851746</v>
       </c>
       <c r="S6">
-        <v>0.2080842501946424</v>
+        <v>0.1188189825566305</v>
       </c>
       <c r="T6">
-        <v>0.2080842501946424</v>
+        <v>0.1141607831672527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H7">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I7">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J7">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N7">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O7">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P7">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q7">
-        <v>1.042188471211509</v>
+        <v>1.265108816565</v>
       </c>
       <c r="R7">
-        <v>1.042188471211509</v>
+        <v>5.06043526626</v>
       </c>
       <c r="S7">
-        <v>0.005850385733334141</v>
+        <v>0.003848677263988374</v>
       </c>
       <c r="T7">
-        <v>0.005850385733334141</v>
+        <v>0.002465195381865881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H8">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I8">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J8">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N8">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O8">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P8">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q8">
-        <v>44.39207759633792</v>
+        <v>24.48270476947533</v>
       </c>
       <c r="R8">
-        <v>44.39207759633792</v>
+        <v>146.896228616852</v>
       </c>
       <c r="S8">
-        <v>0.249197515244793</v>
+        <v>0.07448057271710444</v>
       </c>
       <c r="T8">
-        <v>0.249197515244793</v>
+        <v>0.07156062380922718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H9">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I9">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J9">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N9">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P9">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q9">
-        <v>1.318317474139164</v>
+        <v>0.7639313591005555</v>
       </c>
       <c r="R9">
-        <v>1.318317474139164</v>
+        <v>6.875382231905</v>
       </c>
       <c r="S9">
-        <v>0.007400451987098988</v>
+        <v>0.00232400977253563</v>
       </c>
       <c r="T9">
-        <v>0.007400451987098988</v>
+        <v>0.003349348353423658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H10">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I10">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J10">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N10">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O10">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P10">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q10">
-        <v>0.4226174356848552</v>
+        <v>0.4388625383596666</v>
       </c>
       <c r="R10">
-        <v>0.4226174356848552</v>
+        <v>3.949762845237</v>
       </c>
       <c r="S10">
-        <v>0.002372387610001833</v>
+        <v>0.001335094856098723</v>
       </c>
       <c r="T10">
-        <v>0.002372387610001833</v>
+        <v>0.001924130358995767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H11">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I11">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J11">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N11">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O11">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P11">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q11">
-        <v>0.9885235062229362</v>
+        <v>0.5982831121715554</v>
       </c>
       <c r="R11">
-        <v>0.9885235062229362</v>
+        <v>5.384548009543999</v>
       </c>
       <c r="S11">
-        <v>0.005549134324187336</v>
+        <v>0.001820079491260557</v>
       </c>
       <c r="T11">
-        <v>0.005549134324187336</v>
+        <v>0.002623087182848865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H12">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I12">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J12">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N12">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O12">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P12">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q12">
-        <v>26.67348126134651</v>
+        <v>15.24729499583766</v>
       </c>
       <c r="R12">
-        <v>26.67348126134651</v>
+        <v>137.225654962539</v>
       </c>
       <c r="S12">
-        <v>0.1497331418839571</v>
+        <v>0.04638487758478846</v>
       </c>
       <c r="T12">
-        <v>0.1497331418839571</v>
+        <v>0.06684959555607348</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4381776666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.314533</v>
+      </c>
+      <c r="I13">
+        <v>0.1278470915200749</v>
+      </c>
+      <c r="J13">
+        <v>0.1477503397779114</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.127115</v>
+      </c>
+      <c r="N13">
+        <v>2.25423</v>
+      </c>
+      <c r="O13">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P13">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q13">
+        <v>0.4938766207649999</v>
+      </c>
+      <c r="R13">
+        <v>2.963259724589999</v>
+      </c>
+      <c r="S13">
+        <v>0.001502457098287089</v>
+      </c>
+      <c r="T13">
+        <v>0.001443554517342403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J14">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>55.873922</v>
+      </c>
+      <c r="N14">
+        <v>111.747844</v>
+      </c>
+      <c r="O14">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P14">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q14">
+        <v>10.69167984574733</v>
+      </c>
+      <c r="R14">
+        <v>64.150079074484</v>
+      </c>
+      <c r="S14">
+        <v>0.03252591761070562</v>
+      </c>
+      <c r="T14">
+        <v>0.03125076606258555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J15">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.230285</v>
+      </c>
+      <c r="O15">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P15">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q15">
+        <v>0.3336114041538888</v>
+      </c>
+      <c r="R15">
+        <v>3.002502637385</v>
+      </c>
+      <c r="S15">
+        <v>0.00101490291535593</v>
+      </c>
+      <c r="T15">
+        <v>0.001462671735981325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J16">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.001563</v>
+      </c>
+      <c r="N16">
+        <v>3.004689</v>
+      </c>
+      <c r="O16">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P16">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q16">
+        <v>0.1916527524476666</v>
+      </c>
+      <c r="R16">
+        <v>1.724874772029</v>
+      </c>
+      <c r="S16">
+        <v>0.0005830404319913528</v>
+      </c>
+      <c r="T16">
+        <v>0.0008402742251548414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.794504485359081</v>
-      </c>
-      <c r="H13">
-        <v>0.794504485359081</v>
-      </c>
-      <c r="I13">
-        <v>0.4184624481614525</v>
-      </c>
-      <c r="J13">
-        <v>0.4184624481614525</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.943905765838942</v>
-      </c>
-      <c r="N13">
-        <v>0.943905765838942</v>
-      </c>
-      <c r="O13">
-        <v>0.01006020284474834</v>
-      </c>
-      <c r="P13">
-        <v>0.01006020284474834</v>
-      </c>
-      <c r="Q13">
-        <v>0.7499373647153379</v>
-      </c>
-      <c r="R13">
-        <v>0.7499373647153379</v>
-      </c>
-      <c r="S13">
-        <v>0.0042098171114142</v>
-      </c>
-      <c r="T13">
-        <v>0.0042098171114142</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J17">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N17">
+        <v>4.096168</v>
+      </c>
+      <c r="O17">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P17">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q17">
+        <v>0.2612722553608888</v>
+      </c>
+      <c r="R17">
+        <v>2.351450298247999</v>
+      </c>
+      <c r="S17">
+        <v>0.0007948348598570952</v>
+      </c>
+      <c r="T17">
+        <v>0.001145511030360898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J18">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>34.797061</v>
+      </c>
+      <c r="N18">
+        <v>104.391183</v>
+      </c>
+      <c r="O18">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P18">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q18">
+        <v>6.658545211573665</v>
+      </c>
+      <c r="R18">
+        <v>59.92690690416299</v>
+      </c>
+      <c r="S18">
+        <v>0.02025643267320124</v>
+      </c>
+      <c r="T18">
+        <v>0.029193444116287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J19">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.127115</v>
+      </c>
+      <c r="N19">
+        <v>2.25423</v>
+      </c>
+      <c r="O19">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P19">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q19">
+        <v>0.2156775880049999</v>
+      </c>
+      <c r="R19">
+        <v>1.29406552803</v>
+      </c>
+      <c r="S19">
+        <v>0.0006561280883019177</v>
+      </c>
+      <c r="T19">
+        <v>0.0006304051323018115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.083641</v>
+      </c>
+      <c r="I20">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J20">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>55.873922</v>
+      </c>
+      <c r="N20">
+        <v>111.747844</v>
+      </c>
+      <c r="O20">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P20">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q20">
+        <v>20.18242423666734</v>
+      </c>
+      <c r="R20">
+        <v>121.094545420004</v>
+      </c>
+      <c r="S20">
+        <v>0.0613983842929282</v>
+      </c>
+      <c r="T20">
+        <v>0.05899131170176386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.083641</v>
+      </c>
+      <c r="I21">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J21">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N21">
+        <v>5.230285</v>
+      </c>
+      <c r="O21">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P21">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q21">
+        <v>0.629750140853889</v>
+      </c>
+      <c r="R21">
+        <v>5.667751267685</v>
+      </c>
+      <c r="S21">
+        <v>0.001915807571145253</v>
+      </c>
+      <c r="T21">
+        <v>0.002761049893043664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.083641</v>
+      </c>
+      <c r="I22">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J22">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.001563</v>
+      </c>
+      <c r="N22">
+        <v>3.004689</v>
+      </c>
+      <c r="O22">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P22">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q22">
+        <v>0.3617782436276667</v>
+      </c>
+      <c r="R22">
+        <v>3.256004192649</v>
+      </c>
+      <c r="S22">
+        <v>0.001100591255569603</v>
+      </c>
+      <c r="T22">
+        <v>0.001586165236135215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.083641</v>
+      </c>
+      <c r="I23">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J23">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N23">
+        <v>4.096168</v>
+      </c>
+      <c r="O23">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P23">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q23">
+        <v>0.4931972875208889</v>
+      </c>
+      <c r="R23">
+        <v>4.438775587688</v>
+      </c>
+      <c r="S23">
+        <v>0.001500390450440637</v>
+      </c>
+      <c r="T23">
+        <v>0.00216235333605891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.083641</v>
+      </c>
+      <c r="I24">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J24">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>34.797061</v>
+      </c>
+      <c r="N24">
+        <v>104.391183</v>
+      </c>
+      <c r="O24">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P24">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q24">
+        <v>12.56917399303367</v>
+      </c>
+      <c r="R24">
+        <v>113.122565937303</v>
+      </c>
+      <c r="S24">
+        <v>0.03823757572526347</v>
+      </c>
+      <c r="T24">
+        <v>0.05510775505672282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.083641</v>
+      </c>
+      <c r="I25">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J25">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.127115</v>
+      </c>
+      <c r="N25">
+        <v>2.25423</v>
+      </c>
+      <c r="O25">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P25">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q25">
+        <v>0.407129341905</v>
+      </c>
+      <c r="R25">
+        <v>2.44277605143</v>
+      </c>
+      <c r="S25">
+        <v>0.001238557048354754</v>
+      </c>
+      <c r="T25">
+        <v>0.001190000449381978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.154585</v>
+      </c>
+      <c r="I26">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J26">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>55.873922</v>
+      </c>
+      <c r="N26">
+        <v>111.747844</v>
+      </c>
+      <c r="O26">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P26">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q26">
+        <v>58.75301207745667</v>
+      </c>
+      <c r="R26">
+        <v>352.51807246474</v>
+      </c>
+      <c r="S26">
+        <v>0.1787367053431043</v>
+      </c>
+      <c r="T26">
+        <v>0.1717294814654565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H27">
+        <v>3.154585</v>
+      </c>
+      <c r="I27">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J27">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N27">
+        <v>5.230285</v>
+      </c>
+      <c r="O27">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P27">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q27">
+        <v>1.833264289636111</v>
+      </c>
+      <c r="R27">
+        <v>16.499378606725</v>
+      </c>
+      <c r="S27">
+        <v>0.00557710332741309</v>
+      </c>
+      <c r="T27">
+        <v>0.00803768644490855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H28">
+        <v>3.154585</v>
+      </c>
+      <c r="I28">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J28">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.001563</v>
+      </c>
+      <c r="N28">
+        <v>3.004689</v>
+      </c>
+      <c r="O28">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P28">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q28">
+        <v>1.053171872118333</v>
+      </c>
+      <c r="R28">
+        <v>9.478546849064999</v>
+      </c>
+      <c r="S28">
+        <v>0.003203928852775998</v>
+      </c>
+      <c r="T28">
+        <v>0.004617482230216101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H29">
+        <v>3.154585</v>
+      </c>
+      <c r="I29">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J29">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N29">
+        <v>4.096168</v>
+      </c>
+      <c r="O29">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P29">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q29">
+        <v>1.435745570031111</v>
+      </c>
+      <c r="R29">
+        <v>12.92171013028</v>
+      </c>
+      <c r="S29">
+        <v>0.004367783434830611</v>
+      </c>
+      <c r="T29">
+        <v>0.006294822176930733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H30">
+        <v>3.154585</v>
+      </c>
+      <c r="I30">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J30">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>34.797061</v>
+      </c>
+      <c r="N30">
+        <v>104.391183</v>
+      </c>
+      <c r="O30">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P30">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q30">
+        <v>36.59009555822833</v>
+      </c>
+      <c r="R30">
+        <v>329.310860024055</v>
+      </c>
+      <c r="S30">
+        <v>0.1113133250027272</v>
+      </c>
+      <c r="T30">
+        <v>0.1604240680129415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.154585</v>
+      </c>
+      <c r="I31">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J31">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.127115</v>
+      </c>
+      <c r="N31">
+        <v>2.25423</v>
+      </c>
+      <c r="O31">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P31">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q31">
+        <v>1.185193357425</v>
+      </c>
+      <c r="R31">
+        <v>7.111160144549999</v>
+      </c>
+      <c r="S31">
+        <v>0.00360556077740154</v>
+      </c>
+      <c r="T31">
+        <v>0.003464207765868628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.262653</v>
+      </c>
+      <c r="H32">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J32">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>55.873922</v>
+      </c>
+      <c r="N32">
+        <v>111.747844</v>
+      </c>
+      <c r="O32">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P32">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q32">
+        <v>14.675453235066</v>
+      </c>
+      <c r="R32">
+        <v>58.70181294026401</v>
+      </c>
+      <c r="S32">
+        <v>0.04464523720408457</v>
+      </c>
+      <c r="T32">
+        <v>0.02859663854062994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.262653</v>
+      </c>
+      <c r="H33">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J33">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N33">
+        <v>5.230285</v>
+      </c>
+      <c r="O33">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P33">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q33">
+        <v>0.4579166820350001</v>
+      </c>
+      <c r="R33">
+        <v>2.747500092210001</v>
+      </c>
+      <c r="S33">
+        <v>0.001393060818068015</v>
+      </c>
+      <c r="T33">
+        <v>0.001338447027304425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.262653</v>
+      </c>
+      <c r="H34">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J34">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.001563</v>
+      </c>
+      <c r="N34">
+        <v>3.004689</v>
+      </c>
+      <c r="O34">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P34">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q34">
+        <v>0.263063526639</v>
+      </c>
+      <c r="R34">
+        <v>1.578381159834</v>
+      </c>
+      <c r="S34">
+        <v>0.0008002842132656189</v>
+      </c>
+      <c r="T34">
+        <v>0.0007689097362809687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.262653</v>
+      </c>
+      <c r="H35">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J35">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N35">
+        <v>4.096168</v>
+      </c>
+      <c r="O35">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P35">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q35">
+        <v>0.358623604568</v>
+      </c>
+      <c r="R35">
+        <v>2.151741627408</v>
+      </c>
+      <c r="S35">
+        <v>0.001090994304330266</v>
+      </c>
+      <c r="T35">
+        <v>0.001048222780009027</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.262653</v>
+      </c>
+      <c r="H36">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J36">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>34.797061</v>
+      </c>
+      <c r="N36">
+        <v>104.391183</v>
+      </c>
+      <c r="O36">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P36">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q36">
+        <v>9.139552462833</v>
+      </c>
+      <c r="R36">
+        <v>54.83731477699801</v>
+      </c>
+      <c r="S36">
+        <v>0.02780408080803779</v>
+      </c>
+      <c r="T36">
+        <v>0.02671404494461435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.262653</v>
+      </c>
+      <c r="H37">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J37">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.127115</v>
+      </c>
+      <c r="N37">
+        <v>2.25423</v>
+      </c>
+      <c r="O37">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P37">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q37">
+        <v>0.296040136095</v>
+      </c>
+      <c r="R37">
+        <v>1.18416054438</v>
+      </c>
+      <c r="S37">
+        <v>0.0009006046958951937</v>
+      </c>
+      <c r="T37">
+        <v>0.0005768648252170684</v>
       </c>
     </row>
   </sheetData>
